--- a/output/item/책상/2022-01-12_책상.xlsx
+++ b/output/item/책상/2022-01-12_책상.xlsx
@@ -571,22 +571,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>제닉스 ARENA-X ZERO DESK 1200 1인용 컴퓨터 게이밍책상</t>
+          <t>아이디어스터디 티케 철제 1인독서실책상</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25336332523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17476097439</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2533633/25336332523.20201223094149.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1747609/17476097439.20200420142211.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79000</t>
+          <t>69000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -602,12 +602,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>제닉스</t>
+          <t>아이디어스터디</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>제닉스</t>
+          <t>아이디어스터디</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>컴퓨터책상</t>
+          <t>독서실책상</t>
         </is>
       </c>
     </row>
@@ -637,22 +637,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>아이디어스터디 티케 철제 1인독서실책상</t>
+          <t>제닉스 ARENA-X ZERO DESK 1200 1인용 컴퓨터 게이밍책상</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17476097439</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25336332523</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1747609/17476097439.20200420142211.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2533633/25336332523.20201223094149.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>69000</t>
+          <t>79000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -668,12 +668,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>아이디어스터디</t>
+          <t>제닉스</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>아이디어스터디</t>
+          <t>제닉스</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>독서실책상</t>
+          <t>컴퓨터책상</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46420</t>
+          <t>46400</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -835,22 +835,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>e스마트 1인 엘리트 810 가정용 독서실 책상</t>
+          <t>데스커 1인 노트북 책상 빌트인 콘센트 1000 600</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5647102930</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16099044570</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5647102/5647102930.20200903142822.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1609904/16099044570.20181113141203.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>57420</t>
+          <t>127800</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -866,14 +866,10 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>e스마트</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>e스마트</t>
-        </is>
-      </c>
+          <t>데스커</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -891,7 +887,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>독서실책상</t>
+          <t>컴퓨터책상</t>
         </is>
       </c>
     </row>
@@ -901,22 +897,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>데스커 1인 노트북 책상 빌트인 콘센트 1000 600</t>
+          <t>에이픽스 1인용 컴퓨터 게이밍 데스크 GD001 1600L 조립식책상</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16099044570</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23995474522</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1609904/16099044570.20181113141203.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2399547/23995474522.20200901155955.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>127800</t>
+          <t>139000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -932,10 +928,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>데스커</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>에이픽스</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>에이픽스</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -963,22 +963,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>에이픽스 1인용 컴퓨터 게이밍 데스크 GD001 1600L 조립식책상</t>
+          <t>e스마트 1인 엘리트 810 가정용 독서실 책상</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23995474522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5647102930</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2399547/23995474522.20200901155955.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5647102/5647102930.20200903142822.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>139000</t>
+          <t>57410</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -994,12 +994,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>에이픽스</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>에이픽스</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>컴퓨터책상</t>
+          <t>독서실책상</t>
         </is>
       </c>
     </row>
@@ -1293,22 +1293,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>에이픽스 1인용 게이밍 컴퓨터 책상 GD001 800</t>
+          <t>데스커 DSAD214 베이직 데스크 1400x600</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27120808522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13015989309</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712080/27120808522.20210512132631.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1301598/13015989309.20190722130125.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>69000</t>
+          <t>113010</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1324,14 +1324,10 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>에이픽스</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>에이픽스</t>
-        </is>
-      </c>
+          <t>데스커</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -1349,7 +1345,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>컴퓨터책상</t>
+          <t>일자형 책상</t>
         </is>
       </c>
     </row>
@@ -1359,22 +1355,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>데스커 DSAD214 베이직 데스크 1400x600</t>
+          <t>에이픽스 1인용 게이밍 컴퓨터 책상 GD001 800</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13015989309</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27120808522</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1301598/13015989309.20190722130125.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712080/27120808522.20210512132631.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>113010</t>
+          <t>69000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1390,10 +1386,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>데스커</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>에이픽스</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>에이픽스</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>일자형 책상</t>
+          <t>컴퓨터책상</t>
         </is>
       </c>
     </row>
@@ -1553,22 +1553,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>e스마트 1인실 그랜드 1600 독서실책상</t>
+          <t>e스마트 엘리트 와이드 독서실 책상 1230</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10469635410</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7501181662</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1046963/10469635410.20200923165815.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7501181/7501181662.20200903143200.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>261410</t>
+          <t>100040</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1619,22 +1619,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>소프시스 위더스 멀티책상 860</t>
+          <t>e스마트 1인실 그랜드 1600 독서실책상</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14951617722</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10469635410</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1495161/14951617722.20180802140814.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1046963/10469635410.20200923165815.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>33840</t>
+          <t>261410</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1650,12 +1650,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>소프시스</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>소프시스</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>일자형 책상</t>
+          <t>독서실책상</t>
         </is>
       </c>
     </row>
@@ -1685,22 +1685,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>e스마트 엘리트 와이드 독서실 책상 1230</t>
+          <t>소프시스 위더스 멀티책상 860</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7501181662</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14951617722</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7501181/7501181662.20200903143200.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1495161/14951617722.20180802140814.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>100050</t>
+          <t>33840</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>e스마트</t>
+          <t>소프시스</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>e스마트</t>
+          <t>소프시스</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>독서실책상</t>
+          <t>일자형 책상</t>
         </is>
       </c>
     </row>
@@ -1751,22 +1751,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>소프시스 튜브 접이식 책상 선반형 863</t>
+          <t>데스커 DSAD608 베이직데스크 800x600</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26008810523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17505293333</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2600881/26008810523.20210216143840.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1750529/17505293333.20190215174158.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>45880</t>
+          <t>82000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1782,12 +1782,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>소프시스</t>
+          <t>데스커</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>소프시스</t>
+          <t>일룸</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1817,22 +1817,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>데스커 DSAD608 베이직데스크 800x600</t>
+          <t>한샘 샘스틸 책상 DIY 120cm</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17505293333</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=9027257990</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1750529/17505293333.20190215174158.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_9027257/9027257990.20190717110659.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>82000</t>
+          <t>92080</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>데스커</t>
+          <t>한샘</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>일룸</t>
+          <t>한샘</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1883,22 +1883,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>한샘 홀리라이트 책상 160</t>
+          <t>소프시스 튜브 접이식 책상 선반형 863</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=9419683713</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26008810523</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_9419683/9419683713.20210406143702.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2600881/26008810523.20210216143840.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>164100</t>
+          <t>45880</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1914,12 +1914,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>한샘</t>
+          <t>소프시스</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>한샘</t>
+          <t>소프시스</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1949,22 +1949,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>한샘 샘스틸 책상 DIY 120cm</t>
+          <t>한샘 홀리라이트 책상 160</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=9027257990</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=9419683713</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_9027257/9027257990.20190717110659.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_9419683/9419683713.20210406143702.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>92080</t>
+          <t>164100</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>229420</t>
+          <t>225420</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>46740</t>
+          <t>49760</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -3265,45 +3265,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>까르엠가구 로렌 고무나무 원목 책상 1500</t>
+          <t>컴퓨터 책상 조립식 철제 1인용</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28077205522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12023331353</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2807720/28077205522.20210720103337.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1202333/12023331353.7.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>144000</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>Happy쇼핑</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>까르엠가구</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>까르엠</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3321,7 +3313,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>삼나무/원목책상</t>
+          <t>컴퓨터책상</t>
         </is>
       </c>
     </row>
@@ -3331,37 +3323,45 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>컴퓨터 책상 조립식 철제 1인용</t>
+          <t>제닉스 ARENA DESK 1500 게이밍 컴퓨터책상</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12023331353</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15334597317</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1202333/12023331353.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1533459/15334597317.20181122172751.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>287000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Happy쇼핑</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>제닉스</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>제닉스</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3389,22 +3389,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>제닉스 ARENA DESK 1500 게이밍 컴퓨터책상</t>
+          <t>e스마트 스터디룸 1인 독서실책상</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15334597317</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14540857537</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1533459/15334597317.20181122172751.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1454085/14540857537.20200916093420.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>287000</t>
+          <t>514570</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3420,14 +3420,10 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>제닉스</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>제닉스</t>
-        </is>
-      </c>
+          <t>e스마트</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3445,7 +3441,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>컴퓨터책상</t>
+          <t>독서실책상</t>
         </is>
       </c>
     </row>
@@ -3455,22 +3451,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>이즈네이처 에스더 원목책상 1200</t>
+          <t>e스마트 스틸 1인 독서실책상 와이드900 (스탠드포함)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29900783618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21570174424</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990078/29900783618.20211202192629.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2157017/21570174424.20200817151700.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>95900</t>
+          <t>159210</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3486,12 +3482,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>이즈네이처</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>이즈네이처</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3511,7 +3507,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>삼나무/원목책상</t>
+          <t>독서실책상</t>
         </is>
       </c>
     </row>
@@ -3521,43 +3517,43 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>철제 컴퓨터 책상</t>
+          <t>까르엠가구 로렌 고무나무 원목 책상 1500</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82012869748</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28077205522</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8201286/82012869748.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2807720/28077205522.20210720103337.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>24500</t>
+          <t>144000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>프리메이드Homedeco</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>프리메이드</t>
+          <t>까르엠가구</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>프리메이드</t>
+          <t>까르엠</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3577,7 +3573,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>컴퓨터책상</t>
+          <t>삼나무/원목책상</t>
         </is>
       </c>
     </row>
@@ -3587,22 +3583,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>e스마트 스터디룸 1인 독서실책상</t>
+          <t>소프시스 튜브 접이식 책상 647</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14540857537</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13146102479</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1454085/14540857537.20200916093420.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1314610/13146102479.20190716153245.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>514620</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3618,10 +3614,14 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>e스마트</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr"/>
+          <t>소프시스</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>소프시스</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>독서실책상</t>
+          <t>일자형 책상</t>
         </is>
       </c>
     </row>
@@ -3649,43 +3649,43 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>e스마트 스틸 1인 독서실책상 와이드900 (스탠드포함)</t>
+          <t>철제 컴퓨터 책상</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21570174424</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82012869748</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2157017/21570174424.20200817151700.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8201286/82012869748.3.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>158290</t>
+          <t>24500</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>프리메이드Homedeco</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>e스마트</t>
+          <t>프리메이드</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>e스마트</t>
+          <t>프리메이드</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>독서실책상</t>
+          <t>컴퓨터책상</t>
         </is>
       </c>
     </row>
@@ -3781,22 +3781,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>소프시스 튜브 접이식 책상 647</t>
+          <t>제닉스 ARENA-X ZERO DESK 1600 컴퓨터 게임용 게이밍책상</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13146102479</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744090527</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1314610/13146102479.20190716153245.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574409/25744090527.20210126103450.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>158000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>소프시스</t>
+          <t>제닉스</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>소프시스</t>
+          <t>제닉스</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>일자형 책상</t>
+          <t>컴퓨터책상</t>
         </is>
       </c>
     </row>
@@ -3847,22 +3847,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>제닉스 ARENA-X ZERO DESK 1600 컴퓨터 게임용 게이밍책상</t>
+          <t>이지심플 100 컴퓨터책상</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25744090527</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15800543441</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574409/25744090527.20210126103450.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1580054/15800543441.20181024144836.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>158000</t>
+          <t>29890</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3876,16 +3876,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>제닉스</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>제닉스</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3913,43 +3905,43 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>이케아 접이식 책상 미니책상 간이 1인용 컴퓨터 각도조절 고등학생 원룸 조립식책상 600 800</t>
+          <t>아이디어스터디 스터디스타 와이드 1000 독서실책상</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82724954667</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29487908623</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8272495/82724954667.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2948790/29487908623.20211101121947.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>28800</t>
+          <t>245000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>미니미니멀</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>아이디어스터디</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>아이디어스터디</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3969,7 +3961,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>일자형 책상</t>
+          <t>독서실책상</t>
         </is>
       </c>
     </row>
@@ -3979,28 +3971,28 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>베리트 철제책상 선반형 선반 책상 900 1200 1800 1500책상 공부 서재 긴 화이트</t>
+          <t>이케아 접이식 책상 미니책상 간이 1인용 컴퓨터 각도조절 고등학생 원룸 조립식책상 600 800</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82725935873</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82724954667</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8272593/82725935873.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8272495/82724954667.5.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>76000</t>
+          <t>28800</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>바르젤</t>
+          <t>미니미니멀</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4010,10 +4002,14 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>바르젤</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
+          <t>이케아</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>이케아</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4041,36 +4037,40 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>이지심플 100 컴퓨터책상</t>
+          <t>베리트 철제책상 선반형 선반 책상 900 1200 1800 1500책상 공부 서재 긴 화이트</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15800543441</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82725935873</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1580054/15800543441.20181024144836.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8272593/82725935873.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>76000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>바르젤</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>바르젤</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>컴퓨터책상</t>
+          <t>일자형 책상</t>
         </is>
       </c>
     </row>
@@ -4099,36 +4099,40 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>화이트 책상 작은 소형 공부방 1인용 노트북 이케아 조립식 서재 간이 미니 공부 테이블</t>
+          <t>LYYL 미디 데스크 MD 1560B</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82756952123</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28506250556</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8275695/82756952123.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2850625/28506250556.20210820115308.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>21900</t>
+          <t>260000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>슬기로운 마켓</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>LYYL</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -4147,7 +4151,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>일자형 책상</t>
+          <t>컴퓨터책상</t>
         </is>
       </c>
     </row>
@@ -4157,22 +4161,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>노르웨이숲 우드슬랩 책상 원목 북유럽 서재 컴퓨터 2인용 1600</t>
+          <t>까사미아 제럴드 데스크 1400</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30244898618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21806742618</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3024489/30244898618.20211221163956.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2180674/21806742618.20201021153441.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>406510</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -4188,12 +4192,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>노르웨이숲</t>
+          <t>까사미아</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>노르웨이숲</t>
+          <t>까사미아</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4213,7 +4217,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>삼나무/원목책상</t>
+          <t>일자형 책상</t>
         </is>
       </c>
     </row>
@@ -4223,22 +4227,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>완소간소 1인용 컴퓨터 책상 게이밍 철재 선반형 1200</t>
+          <t>e스마트 클로버 독서실책상</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30402829618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21277559631</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3040282/30402829618.20220103154312.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2127755/21277559631.20210209150527.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>37000</t>
+          <t>75980</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4254,12 +4258,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>완소간소</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>완소간소</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4279,7 +4283,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>컴퓨터책상</t>
+          <t>독서실책상</t>
         </is>
       </c>
     </row>
@@ -4289,45 +4293,37 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>까사미아 제럴드 데스크 1400</t>
+          <t>화이트 책상 작은 소형 공부방 1인용 노트북 이케아 조립식 서재 간이 미니 공부 테이블</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21806742618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82756952123</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2180674/21806742618.20201021153441.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8275695/82756952123.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>406510</t>
+          <t>21900</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>슬기로운 마켓</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>까사미아</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>까사미아</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4355,22 +4351,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>루나랩 스파크 컴퓨터 게이밍 책상 1인용</t>
+          <t>노르웨이숲 우드슬랩 책상 원목 북유럽 서재 컴퓨터 2인용 1600</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28001087524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30244898618</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2800108/28001087524.20210714163509.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3024489/30244898618.20211221163956.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>118000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4386,12 +4382,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>루나랩</t>
+          <t>노르웨이숲</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>루나</t>
+          <t>노르웨이숲</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4411,7 +4407,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>컴퓨터책상</t>
+          <t>삼나무/원목책상</t>
         </is>
       </c>
     </row>
@@ -4421,22 +4417,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>e스마트 클로버 독서실책상</t>
+          <t>e스마트 하우스 벙커형 독서실책상 풀세트</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21277559631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19052739888</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2127755/21277559631.20210209150527.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1905273/19052739888.20200924095218.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>75970</t>
+          <t>1018600</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4487,43 +4483,43 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>이케아 책상 테이블 고등학생 책상 철제 공부 중학생 원목 서재 선반 서랍 멀바우 컴퓨터</t>
+          <t>루나랩 스파크 컴퓨터 게이밍 책상 1인용</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82902130095</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28001087524</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8290213/82902130095.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2800108/28001087524.20210714163509.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>108000</t>
+          <t>118000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>미니미니멀</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>루나랩</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>루나</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4543,7 +4539,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>일자형 책상</t>
+          <t>컴퓨터책상</t>
         </is>
       </c>
     </row>
@@ -4553,22 +4549,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>아이디어스터디 스터디스타 와이드 1000 독서실책상</t>
+          <t>완소간소 1인용 컴퓨터 책상 게이밍 철재 선반형 1200</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29487908623</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30402829618</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2948790/29487908623.20211101121947.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3040282/30402829618.20220103154312.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>245000</t>
+          <t>37000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4584,12 +4580,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>아이디어스터디</t>
+          <t>완소간소</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>아이디어스터디</t>
+          <t>완소간소</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4609,7 +4605,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>독서실책상</t>
+          <t>컴퓨터책상</t>
         </is>
       </c>
     </row>
@@ -4619,45 +4615,41 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>e스마트 하우스 벙커형 독서실책상 풀세트</t>
+          <t>한샘 아이비 일자형 책상 1000 DIY</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19052739888</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29032341023</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1905273/19052739888.20200924095218.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2903234/29032341023.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1018650</t>
+          <t>59900</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>한샘몰</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>e스마트</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>e스마트</t>
-        </is>
-      </c>
+          <t>한샘</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4675,7 +4667,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>독서실책상</t>
+          <t>일자형 책상</t>
         </is>
       </c>
     </row>
@@ -4685,37 +4677,45 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>접이식 책상 긴 이케아 컴퓨터 겸테이블 간이 중학생 과외 철제 원룸 대학생 폭넓은 정면</t>
+          <t>e스마트 1인실 링크 독서실책상 (DIY 조립)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82981938730</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25996919522</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8298193/82981938730.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2599691/25996919522.20210310162034.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>24500</t>
+          <t>461080</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>공간의꿈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>e스마트</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>e스마트</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>일자형 책상</t>
+          <t>독서실책상</t>
         </is>
       </c>
     </row>
@@ -4743,41 +4743,45 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>한샘 아이비 일자형 책상 1000 DIY</t>
+          <t>리바트 꼼므 1200 각도 조절 책상세트 책상+책장</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29032341023</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21395369991</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2903234/29032341023.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2139536/21395369991.20191127144019.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>59900</t>
+          <t>229250</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>한샘몰</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>한샘</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr"/>
+          <t>리바트</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>현대리바트</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4805,45 +4809,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>e스마트 1인실 링크 독서실책상 (DIY 조립)</t>
+          <t>접이식 책상 긴 이케아 컴퓨터 겸테이블 간이 중학생 과외 철제 원룸 대학생 폭넓은 정면</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25996919522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82981938730</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2599691/25996919522.20210310162034.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8298193/82981938730.7.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>461130</t>
+          <t>24500</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>공간의꿈</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>e스마트</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>e스마트</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4861,7 +4857,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>독서실책상</t>
+          <t>일자형 책상</t>
         </is>
       </c>
     </row>
@@ -4871,43 +4867,43 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>데스커 1400폭 5단 콘센트형 책상세트 조명,도어포함</t>
+          <t>이케아 책상 테이블 고등학생 책상 철제 공부 중학생 원목 서재 선반 서랍 멀바우 컴퓨터</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25138657522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82902130095</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2513865/25138657522.20201208111649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8290213/82902130095.7.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>616540</t>
+          <t>108000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>미니미니멀</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>데스커</t>
+          <t>이케아</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>일룸</t>
+          <t>이케아</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4937,22 +4933,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>리바트 꼼므 1200 각도 조절 책상세트 책상+책장</t>
+          <t>이즈네이처 에스더 원목책상 1200</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21395369991</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29900783618</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2139536/21395369991.20191127144019.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990078/29900783618.20211202192629.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>229250</t>
+          <t>95900</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4968,12 +4964,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>리바트</t>
+          <t>이즈네이처</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>현대리바트</t>
+          <t>이즈네이처</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4993,7 +4989,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>일자형 책상</t>
+          <t>삼나무/원목책상</t>
         </is>
       </c>
     </row>
@@ -5003,22 +4999,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>e스마트 철제 책상 1600 x 800 사각다리</t>
+          <t>데스커 1400폭 5단 콘센트형 책상세트 조명,도어포함</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29109316586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25138657522</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2910931/29109316586.20211005160250.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2513865/25138657522.20201208111649.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>125280</t>
+          <t>616540</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -5034,12 +5030,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>e스마트</t>
+          <t>데스커</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>e스마트</t>
+          <t>일룸</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5069,43 +5065,43 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[데스커] 독서실 책상(집중형데스크) 시리즈</t>
+          <t>앱코 HACKER 1400 게이밍 책상</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83298177405</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22834610432</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8329817/83298177405.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2283461/22834610432.20200512115330.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>240900</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>데스커</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>데스커</t>
+          <t>앱코</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>일룸</t>
+          <t>앱코</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5125,7 +5121,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>독서실책상</t>
+          <t>컴퓨터책상</t>
         </is>
       </c>
     </row>
@@ -5135,22 +5131,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>레트로하우스 플럼 USB 고무나무 원목 책상 1400</t>
+          <t>e스마트 철제 책상 1600 x 800 사각다리</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24522848522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29109316586</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2452284/24522848522.20201020094307.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2910931/29109316586.20211005160250.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>125280</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -5166,12 +5162,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>레트로하우스</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>레트로하우스</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5191,7 +5187,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>삼나무/원목책상</t>
+          <t>일자형 책상</t>
         </is>
       </c>
     </row>
@@ -5201,22 +5197,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>앱코 HACKER 1400 게이밍 책상</t>
+          <t>e스마트 엘리트 학생 1인 와이드 가정용 독서실책상 930 LED 스탠드포함</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22834610432</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15923639644</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2283461/22834610432.20200512115330.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1592363/15923639644.20200904164319.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>240900</t>
+          <t>140020</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -5232,12 +5228,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>앱코</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>앱코</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5257,7 +5253,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>컴퓨터책상</t>
+          <t>독서실책상</t>
         </is>
       </c>
     </row>
@@ -5267,43 +5263,43 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>e스마트 홈게이머 칸막이형 게이밍 컴퓨터책상</t>
+          <t>[데스커] 독서실 책상(집중형데스크) 시리즈</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28827936586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83298177405</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2882793/28827936586.20210916180531.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8329817/83298177405.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>데스커</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>e스마트</t>
+          <t>데스커</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>e스마트</t>
+          <t>일룸</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5323,7 +5319,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>컴퓨터책상</t>
+          <t>독서실책상</t>
         </is>
       </c>
     </row>
@@ -5333,22 +5329,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>e스마트 엘리트 학생 1인 와이드 가정용 독서실책상 930 LED 스탠드포함</t>
+          <t>더준 접이식책상</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15923639644</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15479412480</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1592363/15923639644.20200904164319.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1547941/15479412480.20180928114601.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>140020</t>
+          <t>24800</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5364,12 +5360,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>e스마트</t>
+          <t>더준</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>e스마트</t>
+          <t>더준</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5389,7 +5385,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>독서실책상</t>
+          <t>일자형 책상</t>
         </is>
       </c>
     </row>
@@ -5399,22 +5395,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>더준 접이식책상</t>
+          <t>아이디어스터디 에디슨 집중력 독서실책상</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15479412480</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21559245452</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1547941/15479412480.20180928114601.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2155924/21559245452.20191219142003.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>24800</t>
+          <t>185000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -5430,12 +5426,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>더준</t>
+          <t>아이디어스터디</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>더준</t>
+          <t>아이디어스터디</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5455,7 +5451,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>일자형 책상</t>
+          <t>독서실책상</t>
         </is>
       </c>
     </row>
@@ -5465,22 +5461,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>아이디어스터디 에디슨 집중력 독서실책상</t>
+          <t>e스마트 홈게이머 칸막이형 게이밍 컴퓨터책상</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21559245452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28827936586</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2155924/21559245452.20191219142003.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2882793/28827936586.20210916180531.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>185000</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5496,12 +5492,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>아이디어스터디</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>아이디어스터디</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5521,7 +5517,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>독서실책상</t>
+          <t>컴퓨터책상</t>
         </is>
       </c>
     </row>
@@ -5597,22 +5593,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LYYL 미디 데스크 MD 1560B</t>
+          <t>레트로하우스 플럼 USB 고무나무 원목 책상 1400</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28506250556</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24522848522</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2850625/28506250556.20210820115308.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2452284/24522848522.20201020094307.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>260000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5628,10 +5624,14 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>LYYL</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
+          <t>레트로하우스</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>레트로하우스</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>컴퓨터책상</t>
+          <t>삼나무/원목책상</t>
         </is>
       </c>
     </row>
@@ -5659,28 +5659,28 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>e스마트 하버드 집중력 학생 칸막이 1인 가정용 독서실책상</t>
+          <t>1인용컴퓨터책상 게이밍데스크 노트북책상 600 800 1000</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82349932136</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12654279667</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8234993/82349932136.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1265427/12654279667.2.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>62000</t>
+          <t>31900</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>e스마트</t>
+          <t>큐브메이트</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5688,16 +5688,8 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>e스마트</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>e스마트</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -5715,7 +5707,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>독서실책상</t>
+          <t>컴퓨터책상</t>
         </is>
       </c>
     </row>
@@ -5791,28 +5783,28 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>이케아 컴퓨터 책상 겸테이블 접이식 간이 긴 과외 높이조절 미니 2인 고등학생 린몬 철제</t>
+          <t>e스마트 하버드 집중력 학생 칸막이 1인 가정용 독서실책상</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82864468839</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82349932136</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8286446/82864468839.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8234993/82349932136.3.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>24500</t>
+          <t>62000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>공간의꿈</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5820,8 +5812,16 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>e스마트</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>e스마트</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -5839,7 +5839,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>일자형 책상</t>
+          <t>독서실책상</t>
         </is>
       </c>
     </row>
@@ -5915,28 +5915,28 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1인용컴퓨터책상 게이밍데스크 노트북책상 600 800 1000</t>
+          <t>이케아 컴퓨터 책상 겸테이블 접이식 간이 긴 과외 높이조절 미니 2인 고등학생 린몬 철제</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12654279667</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82864468839</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1265427/12654279667.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8286446/82864468839.12.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>31900</t>
+          <t>24500</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>큐브메이트</t>
+          <t>공간의꿈</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>컴퓨터책상</t>
+          <t>일자형 책상</t>
         </is>
       </c>
     </row>
@@ -5973,37 +5973,45 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>이케아 책상 테이블 접이식 미니 공부 고등학생 중학생 컴퓨터 긴 넓은 좁은 1인용 2인용</t>
+          <t>라이트오피스 노트북 책상 BDB010 1000 x 500</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82669571160</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28508389554</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8266957/82669571160.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2850838/28508389554.20210820140617.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>24500</t>
+          <t>77790</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>renoir</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>라이트오피스</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>듀오백</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -6021,7 +6029,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>일자형 책상</t>
+          <t>컴퓨터책상</t>
         </is>
       </c>
     </row>
@@ -6031,43 +6039,43 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>이케아 LINNMON 100x60 ADILS 린몬 ADILS 테이블 책상 120x60 150x60 200x60 책상 모음전 LAGKAPTEN</t>
+          <t>e스마트 엘리트 와이드 독서실책상 930</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81902353716</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6828470247</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8190235/81902353716.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6828470/6828470247.20200903143021.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>17290</t>
+          <t>90430</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>비욘드 퍼니싱</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>e스마트</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6087,7 +6095,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>일자형 책상</t>
+          <t>독서실책상</t>
         </is>
       </c>
     </row>
@@ -6097,22 +6105,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>e스마트 엘리트 와이드 독서실책상 930</t>
+          <t>모던하우스 에반스베러 2000전면 책상세트</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6828470247</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25996513523</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6828470/6828470247.20200903143021.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2599651/25996513523.20210215153922.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>90430</t>
+          <t>126490</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -6128,12 +6136,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>e스마트</t>
+          <t>모던하우스</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>e스마트</t>
+          <t>모던하우스</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6153,7 +6161,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>독서실책상</t>
+          <t>일자형 책상</t>
         </is>
       </c>
     </row>
@@ -6163,45 +6171,37 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>레트로하우스 플럼 USB 원목 책상 1200</t>
+          <t>이케아 책상 테이블 접이식 미니 공부 고등학생 중학생 컴퓨터 긴 넓은 좁은 1인용 2인용</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23120581490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82669571160</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2312058/23120581490.20200810155755.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8266957/82669571160.2.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>24500</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>renoir</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>레트로하우스</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>레트로하우스</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>삼나무/원목책상</t>
+          <t>일자형 책상</t>
         </is>
       </c>
     </row>
@@ -6229,43 +6229,43 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>라이트오피스 노트북 책상 BDB010 1000 x 500</t>
+          <t>이케아 LINNMON 100x60 ADILS 린몬 ADILS 테이블 책상 120x60 150x60 200x60 책상 모음전 LAGKAPTEN</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28508389554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81902353716</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2850838/28508389554.20210820140617.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8190235/81902353716.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>77790</t>
+          <t>17290</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>비욘드 퍼니싱</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>라이트오피스</t>
+          <t>이케아</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>듀오백</t>
+          <t>이케아</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>컴퓨터책상</t>
+          <t>일자형 책상</t>
         </is>
       </c>
     </row>
@@ -6295,22 +6295,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>보니애가구 리츠 1200 고무나무 원목 북유럽 서랍형 책상</t>
+          <t>레트로하우스 플럼 USB 원목 책상 1200</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26980930525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23120581490</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2698093/26980930525.20210430165705.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2312058/23120581490.20200810155755.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>88000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -6326,12 +6326,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>보니애가구</t>
+          <t>레트로하우스</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>보니애가구</t>
+          <t>레트로하우스</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6361,22 +6361,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>모던하우스 에반스베러 2000전면 책상세트</t>
+          <t>보니애가구 리츠 1200 고무나무 원목 북유럽 서랍형 책상</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25996513523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26980930525</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2599651/25996513523.20210215153922.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2698093/26980930525.20210430165705.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>129270</t>
+          <t>88000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6392,12 +6392,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>모던하우스</t>
+          <t>보니애가구</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>모던하우스</t>
+          <t>보니애가구</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>일자형 책상</t>
+          <t>삼나무/원목책상</t>
         </is>
       </c>
     </row>
@@ -6493,43 +6493,43 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[두닷] 콰트로 에어 1600 2인용 책상</t>
+          <t>아이디어스터디 피타 독서실책상</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82198242491</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21918198457</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8219824/82198242491.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2191819/21918198457.20200207161022.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>73000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>두닷 쇼룸</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>두닷</t>
+          <t>아이디어스터디</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>두닷</t>
+          <t>아이디어스터디</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>일자형 책상</t>
+          <t>독서실책상</t>
         </is>
       </c>
     </row>
@@ -6559,37 +6559,45 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>카루쏘 멀바우 서랍책상 1200 1600 1800</t>
+          <t>e스마트 스틸메쉬 독서실책상</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82374562956</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14509910531</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8237456/82374562956.15.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1450991/14509910531.20200923154835.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>159900</t>
+          <t>149380</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>퍼니비</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>e스마트</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>e스마트</t>
+        </is>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -6607,7 +6615,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>일자형 책상</t>
+          <t>독서실책상</t>
         </is>
       </c>
     </row>
@@ -6617,43 +6625,43 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>아이디어스터디 피타 독서실책상</t>
+          <t>다가구 프래그마 1인용 게이밍 컴퓨터책상 1000 1200 1400 1500 1600 1800</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21918198457</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13423582788</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2191819/21918198457.20200207161022.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1342358/13423582788.7.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>73000</t>
+          <t>85000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>다가구프래그마</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>아이디어스터디</t>
+          <t>다가구</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>아이디어스터디</t>
+          <t>다가구</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6673,7 +6681,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>독서실책상</t>
+          <t>컴퓨터책상</t>
         </is>
       </c>
     </row>
@@ -6683,43 +6691,43 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>한샘 샘 책상 120cm 하부서랍형 DIY</t>
+          <t>[두닷] 콰트로 에어 1600 2인용 책상</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17606597866</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82198242491</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1760659/17606597866.20210923174423.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8219824/82198242491.1.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>158900</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>두닷 쇼룸</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>한샘</t>
+          <t>두닷</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>한샘</t>
+          <t>두닷</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6749,43 +6757,43 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>e스마트 스틸메쉬 독서실책상</t>
+          <t>[희망일배송] 로포텐 비버 컴퓨터책상 원목책상 1200 1500 1800</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14509910531</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11779515666</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1450991/14509910531.20200923154835.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1177951/11779515666.3.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>149390</t>
+          <t>99000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>Lofoten 로포텐</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>e스마트</t>
+          <t>로포텐</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>e스마트</t>
+          <t>로포텐</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6805,7 +6813,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>독서실책상</t>
+          <t>삼나무/원목책상</t>
         </is>
       </c>
     </row>
@@ -6815,43 +6823,43 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>다가구 프래그마 1인용 게이밍 컴퓨터책상 1000 1200 1400 1500 1600 1800</t>
+          <t>아이디어스터디 스타2호 독서실책상 와이드 1200</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13423582788</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15826085927</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1342358/13423582788.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1582608/15826085927.20201229115039.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>85000</t>
+          <t>275000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>다가구프래그마</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>다가구</t>
+          <t>아이디어스터디</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>다가구</t>
+          <t>아이디어스터디</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6871,7 +6879,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>컴퓨터책상</t>
+          <t>독서실책상</t>
         </is>
       </c>
     </row>
@@ -6881,28 +6889,28 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[희망일배송] 로포텐 비버 컴퓨터책상 원목책상 1200 1500 1800</t>
+          <t>카루쏘 멀바우 서랍책상 1200 1600 1800</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11779515666</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82374562956</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1177951/11779515666.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8237456/82374562956.15.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>99000</t>
+          <t>159900</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Lofoten 로포텐</t>
+          <t>퍼니비</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -6910,16 +6918,8 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>로포텐</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>로포텐</t>
-        </is>
-      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>삼나무/원목책상</t>
+          <t>일자형 책상</t>
         </is>
       </c>
     </row>
